--- a/3_output/costs_men_general.xlsx
+++ b/3_output/costs_men_general.xlsx
@@ -449,10 +449,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>896961.7546502091</v>
+        <v>896961.7580900495</v>
       </c>
       <c r="C2" t="n">
-        <v>1650181.89637524</v>
+        <v>1650181.902265085</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>758842.7520202389</v>
+        <v>758842.7544885315</v>
       </c>
       <c r="C3" t="n">
-        <v>1390876.154486294</v>
+        <v>1390876.159482404</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>639567.0714824055</v>
+        <v>639567.0740403533</v>
       </c>
       <c r="C4" t="n">
-        <v>1169721.807838619</v>
+        <v>1169721.81209535</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>541054.9589379341</v>
+        <v>541054.9606716461</v>
       </c>
       <c r="C5" t="n">
-        <v>980113.17298076</v>
+        <v>980113.1766385033</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>454985.3045524992</v>
+        <v>454985.306546326</v>
       </c>
       <c r="C6" t="n">
-        <v>817485.1891204258</v>
+        <v>817485.192311866</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>384663.946145359</v>
+        <v>384663.9474161966</v>
       </c>
       <c r="C7" t="n">
-        <v>676944.9077615787</v>
+        <v>676944.9106129805</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>320382.7791792237</v>
+        <v>320382.7809117539</v>
       </c>
       <c r="C8" t="n">
-        <v>547935.5683371871</v>
+        <v>547935.5709688201</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>260596.5851166598</v>
+        <v>260596.5861463248</v>
       </c>
       <c r="C9" t="n">
-        <v>412453.2879960394</v>
+        <v>412453.2905335634</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>187452.8355465996</v>
+        <v>187452.8374079101</v>
       </c>
       <c r="C10" t="n">
-        <v>263074.1126743278</v>
+        <v>263074.1153116701</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>1909551.485224495</v>
+        <v>1909551.496180507</v>
       </c>
       <c r="C2" t="n">
-        <v>3389385.661708076</v>
+        <v>3389385.680742157</v>
       </c>
     </row>
     <row r="3">
@@ -586,10 +586,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>1490880.788775226</v>
+        <v>1490880.796913595</v>
       </c>
       <c r="C3" t="n">
-        <v>2640868.425982433</v>
+        <v>2640868.44086518</v>
       </c>
     </row>
     <row r="4">
@@ -597,10 +597,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1163695.182089818</v>
+        <v>1163695.188914585</v>
       </c>
       <c r="C4" t="n">
-        <v>2058049.643194355</v>
+        <v>2058049.654882628</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>912742.7957254783</v>
+        <v>912742.8006889811</v>
       </c>
       <c r="C5" t="n">
-        <v>1603953.628156441</v>
+        <v>1603953.637414297</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>716284.9049281499</v>
+        <v>716284.909378283</v>
       </c>
       <c r="C6" t="n">
-        <v>1250414.833507801</v>
+        <v>1250414.840953526</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +630,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>566787.838640779</v>
+        <v>566787.8418195269</v>
       </c>
       <c r="C7" t="n">
-        <v>973400.2311518346</v>
+        <v>973400.2372838293</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>445706.787199021</v>
+        <v>445706.7904362121</v>
       </c>
       <c r="C8" t="n">
-        <v>746940.6646401924</v>
+        <v>746940.6698568424</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>344977.1812206882</v>
+        <v>344977.1834875917</v>
       </c>
       <c r="C9" t="n">
-        <v>541524.6765223629</v>
+        <v>541524.6811589623</v>
       </c>
     </row>
     <row r="10">
@@ -663,10 +663,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>242619.4209098939</v>
+        <v>242619.4238350611</v>
       </c>
       <c r="C10" t="n">
-        <v>342680.0542845298</v>
+        <v>342680.058726534</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +701,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>3270775.236105365</v>
+        <v>3270775.261191846</v>
       </c>
       <c r="C2" t="n">
-        <v>5666990.298678673</v>
+        <v>5666990.341750755</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +712,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>2414102.241545308</v>
+        <v>2414102.259665168</v>
       </c>
       <c r="C3" t="n">
-        <v>4177180.605515543</v>
+        <v>4177180.63733682</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1784093.78624414</v>
+        <v>1784093.800108872</v>
       </c>
       <c r="C4" t="n">
-        <v>3083309.704859836</v>
+        <v>3083309.72847307</v>
       </c>
     </row>
     <row r="5">
@@ -734,10 +734,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>1325928.389001154</v>
+        <v>1325928.398950088</v>
       </c>
       <c r="C5" t="n">
-        <v>2280642.445806905</v>
+        <v>2280642.463478918</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +745,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>989346.8610837716</v>
+        <v>989346.8690870097</v>
       </c>
       <c r="C6" t="n">
-        <v>1692294.382023259</v>
+        <v>1692294.395452552</v>
       </c>
     </row>
     <row r="7">
@@ -756,10 +756,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>745927.3198389451</v>
+        <v>745927.3255967596</v>
       </c>
       <c r="C7" t="n">
-        <v>1258571.678289764</v>
+        <v>1258571.688739817</v>
       </c>
     </row>
     <row r="8">
@@ -767,10 +767,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>561933.3650156886</v>
+        <v>561933.3701590702</v>
       </c>
       <c r="C8" t="n">
-        <v>927725.9120174187</v>
+        <v>927725.9204174133</v>
       </c>
     </row>
     <row r="9">
@@ -778,10 +778,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>418910.6578852058</v>
+        <v>418910.661614724</v>
       </c>
       <c r="C9" t="n">
-        <v>652572.9766858936</v>
+        <v>652572.9837402507</v>
       </c>
     </row>
     <row r="10">
@@ -789,10 +789,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>288434.1842610231</v>
+        <v>288434.1883652247</v>
       </c>
       <c r="C10" t="n">
-        <v>407821.1094865451</v>
+        <v>407821.1158722287</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +827,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>5132503.428264564</v>
+        <v>5132503.478193887</v>
       </c>
       <c r="C2" t="n">
-        <v>8721873.392427964</v>
+        <v>8721873.476898823</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +838,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>3616163.762411525</v>
+        <v>3616163.797210905</v>
       </c>
       <c r="C3" t="n">
-        <v>6139457.641744055</v>
+        <v>6139457.701298663</v>
       </c>
     </row>
     <row r="4">
@@ -849,10 +849,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>2553370.867105165</v>
+        <v>2553370.892155467</v>
       </c>
       <c r="C4" t="n">
-        <v>4330918.555209735</v>
+        <v>4330918.597383268</v>
       </c>
     </row>
     <row r="5">
@@ -860,10 +860,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>1814094.877295282</v>
+        <v>1814094.894770572</v>
       </c>
       <c r="C5" t="n">
-        <v>3065660.044244168</v>
+        <v>3065660.074364328</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>1296966.416840559</v>
+        <v>1296966.429944127</v>
       </c>
       <c r="C6" t="n">
-        <v>2181431.939393772</v>
+        <v>2181431.961236714</v>
       </c>
     </row>
     <row r="7">
@@ -882,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>938543.741994167</v>
+        <v>938543.7512678835</v>
       </c>
       <c r="C7" t="n">
-        <v>1560145.372920244</v>
+        <v>1560145.389140706</v>
       </c>
     </row>
     <row r="8">
@@ -893,10 +893,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>681366.5076137576</v>
+        <v>681366.5152284091</v>
       </c>
       <c r="C8" t="n">
-        <v>1110662.071994707</v>
+        <v>1110662.084437286</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>491635.1871465917</v>
+        <v>491635.1926756022</v>
       </c>
       <c r="C9" t="n">
-        <v>760331.9611269722</v>
+        <v>760331.9710988194</v>
       </c>
     </row>
     <row r="10">
@@ -915,10 +915,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>331680.9283344811</v>
+        <v>331680.9338187462</v>
       </c>
       <c r="C10" t="n">
-        <v>468638.035029676</v>
+        <v>468638.0436438234</v>
       </c>
     </row>
   </sheetData>
